--- a/xlsx/美国社会问题_intext.xlsx
+++ b/xlsx/美国社会问题_intext.xlsx
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国社会问题</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国社会问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E9%96%8B%E7%99%BC%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>已開發國家</t>
+    <t>已开发国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%B4%93%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>分贓制度</t>
+    <t>分赃制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE</t>
   </si>
   <si>
-    <t>貧窮</t>
+    <t>贫穷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E7%8E%87</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>種族隔離</t>
+    <t>种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%8B%99%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>義務教育</t>
+    <t>义务教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>社會問題</t>
+    <t>社会问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>美國教育部</t>
+    <t>美国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Life_in_the_US</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%96%87%E5%8C%96</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>美國經濟</t>
+    <t>美国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國醫療系統</t>
+    <t>美国医疗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>美國人權</t>
+    <t>美国人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A</t>
